--- a/datatable_chatpers.xlsx
+++ b/datatable_chatpers.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotst\OneDrive\바탕 화면\Rich_and_Bankrupt_Game\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\Rich_and_Bankrupt_Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75B7CDD8-CD5A-4550-85E5-029DC6CCAB3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C2297183-C87A-45CE-BBB8-59F5A0FD2EF5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="datatable" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -125,7 +124,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -624,11 +623,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{136186FC-80A3-47F5-A0CD-2E7D0FCC76FF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -733,7 +732,7 @@
         <v>12</v>
       </c>
       <c r="H3" s="7">
-        <v>1.03</v>
+        <v>1.3</v>
       </c>
       <c r="I3" s="8" t="s">
         <v>17</v>
@@ -818,5 +817,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/datatable_chatpers.xlsx
+++ b/datatable_chatpers.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\Rich_and_Bankrupt_Game\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/93dc62b20258fb6a/바탕 화면/Rich_and_Bankrupt_Game/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="12" documentId="11_A0CE58EBFA204984DA77A5D094E1203AD5ED5A55" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C6C9EF73-52B6-49E9-A04E-7D2D3032108A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="datatable" sheetId="1" r:id="rId1"/>
@@ -19,16 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -124,7 +115,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -289,9 +280,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -305,6 +293,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -623,11 +614,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -638,9 +629,9 @@
     <col min="4" max="4" width="16.75" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="46.875" style="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.25" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.25" style="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.5" style="11" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.75" style="7" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="7"/>
   </cols>
@@ -649,7 +640,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -709,32 +700,32 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="13" customFormat="1">
+    <row r="3" spans="1:10" s="12" customFormat="1">
       <c r="A3" s="7">
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="8">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="9">
         <v>1</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H3" s="7">
         <v>1.3</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="11" t="s">
         <v>17</v>
       </c>
       <c r="J3" s="7">
@@ -745,28 +736,28 @@
       <c r="A4" s="7">
         <v>2</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="8">
         <v>1.5</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="9">
         <v>0.8</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="10" t="s">
         <v>21</v>
       </c>
       <c r="H4" s="7">
         <v>0.7</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="11" t="s">
         <v>11</v>
       </c>
       <c r="J4" s="7">
@@ -777,42 +768,42 @@
       <c r="A5" s="7">
         <v>3</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="9"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="7">
         <v>4</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="9"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="10"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="7">
         <v>5</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="9"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="10"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="B8" s="11"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/datatable_chatpers.xlsx
+++ b/datatable_chatpers.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="12" documentId="11_A0CE58EBFA204984DA77A5D094E1203AD5ED5A55" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C6C9EF73-52B6-49E9-A04E-7D2D3032108A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="datatable" sheetId="1" r:id="rId1"/>
@@ -617,8 +617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>

--- a/datatable_chatpers.xlsx
+++ b/datatable_chatpers.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/93dc62b20258fb6a/바탕 화면/Rich_and_Bankrupt_Game/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\Rich_and_Bankrupt_Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="11_A0CE58EBFA204984DA77A5D094E1203AD5ED5A55" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C6C9EF73-52B6-49E9-A04E-7D2D3032108A}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
   </bookViews>
   <sheets>
     <sheet name="datatable" sheetId="1" r:id="rId1"/>
@@ -115,7 +114,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -614,11 +613,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
